--- a/gropin/schema/metadataschema337.xlsx
+++ b/gropin/schema/metadataschema337.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Gropin growth model for Salmonella spp. in/on Glucose-Mineral salts (gropin ID: 337 )</t>
+          <t>Gropin secondary growth model for Salmonella spp. in/on Glucose-Mineral salts (gropin ID: 337 )</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -1824,7 +1824,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>QRA model</t>
+          <t>Predictive</t>
         </is>
       </c>
     </row>
@@ -5284,7 +5284,7 @@
       </c>
       <c r="V133" t="inlineStr">
         <is>
-          <t>seq(19.019,36.963036963037,length.out=21)</t>
+          <t>seq(19.019,36.963036963037,length.out=10)</t>
         </is>
       </c>
     </row>
@@ -5346,7 +5346,7 @@
       </c>
       <c r="V134" t="inlineStr">
         <is>
-          <t>seq(5.005,6.99300699300699,length.out=21)</t>
+          <t>seq(5.005,6.99300699300699,length.out=10)</t>
         </is>
       </c>
     </row>
@@ -5403,7 +5403,7 @@
       </c>
       <c r="V135" t="inlineStr">
         <is>
-          <t>seq(0,4.995004995005,length.out=21)</t>
+          <t>seq(0,4.995004995005,length.out=10)</t>
         </is>
       </c>
     </row>
